--- a/Datos/Database by set/Set with text box/Xlsx sets/Invasion Promos (PINV).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Invasion Promos (PINV).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kavu Furens</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{1}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Animal — Kavu</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Festinatio (animali oppugnare et {T} licet ordine penes tuum venit.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kavu Furentem adhibere tibi licet quandocumque subitum adhibere potes.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3/1</t>
+          <t>('Kavu Furens', ['{1}{R}{G}', 'Animal — Kavu', 'Festinatio (animali oppugnare et {T} licet ordine penes tuum venit.)', 'Kavu Furentem adhibere tibi licet quandocumque subitum adhibere potes.', '3/1'])</t>
         </is>
       </c>
     </row>
